--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25360.04260216398</v>
+        <v>-33501.85936956054</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33917475.15840613</v>
+        <v>33917475.15840614</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3485692.437274525</v>
+        <v>3485692.437274526</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>402.9335988151229</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>129.0311660827553</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T13" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>227.731927781948</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>207.5326109043817</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>371.5724976088932</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>196.3751609868604</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.32998933101104</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T16" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>257.7090692669355</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>332.8348076655172</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>18.98847872301002</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
@@ -1906,13 +1906,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2007,13 +2007,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>60.07073011995545</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>146.1924382374054</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>338.6251682162977</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>220.0619699336287</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2244,10 +2244,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>74.42811009354939</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>156.0367594981252</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>127.3873593352174</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>328.5107569703938</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H24" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2487,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>25.46021771264094</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>138.7434236076974</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>386.1184794357843</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -2608,19 +2608,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>328.5107569703938</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2730,10 +2730,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>82.17043591154901</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>68.6498231061877</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>206.4526661771975</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -2851,16 +2851,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>342.1699904618427</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>94.48222241505111</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>25.72126345476415</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>156.7012890994286</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>361.464905015728</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>124.955498477721</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>199.3501868517232</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>64.86176137893669</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>147.4718071887989</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3331,7 +3331,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>74.4281100935485</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>226.6484324643896</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>149.7414779394206</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
@@ -3565,13 +3565,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>393.2664683933463</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>277.0289439627915</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>224.9110624868358</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
@@ -3805,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>401.5266111030784</v>
+        <v>361.4649050157285</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>124.9554984777206</v>
+        <v>49.34995949258661</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>248.9395529139702</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>116.6395830120777</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>77.2037807833857</v>
+        <v>49.34995949258617</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>440.4584857152968</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="C11" t="n">
-        <v>440.4584857152968</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D11" t="n">
-        <v>440.4584857152968</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E11" t="n">
-        <v>440.4584857152968</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F11" t="n">
         <v>33.45485054850599</v>
@@ -5038,19 +5038,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I11" t="n">
-        <v>83.79828774524228</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J11" t="n">
-        <v>195.5292216073328</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K11" t="n">
-        <v>362.9849282099031</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L11" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M11" t="n">
-        <v>801.8833353847205</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N11" t="n">
         <v>1036.7784573317</v>
@@ -5062,7 +5062,7 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q11" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R11" t="n">
         <v>1672.742527425299</v>
@@ -5074,19 +5074,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U11" t="n">
-        <v>1672.742527425299</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="V11" t="n">
-        <v>1672.742527425299</v>
+        <v>1283.293166817345</v>
       </c>
       <c r="W11" t="n">
-        <v>1267.887072836333</v>
+        <v>1283.293166817345</v>
       </c>
       <c r="X11" t="n">
-        <v>848.7446094156434</v>
+        <v>864.1507033966554</v>
       </c>
       <c r="Y11" t="n">
-        <v>440.4584857152968</v>
+        <v>455.8645796963089</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>531.967223835246</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C12" t="n">
-        <v>425.5107626718883</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D12" t="n">
-        <v>330.4204738184416</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E12" t="n">
-        <v>236.3000591453953</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F12" t="n">
-        <v>152.9162207615569</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G12" t="n">
-        <v>68.24978812594551</v>
+        <v>68.2497881259456</v>
       </c>
       <c r="H12" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I12" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J12" t="n">
-        <v>124.2518767018075</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K12" t="n">
-        <v>237.9898955472398</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L12" t="n">
-        <v>390.9246980282439</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M12" t="n">
-        <v>569.3923990549604</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N12" t="n">
-        <v>752.5836090806357</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O12" t="n">
-        <v>920.1677769462458</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P12" t="n">
-        <v>1215.006905328178</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q12" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R12" t="n">
         <v>1672.742527425299</v>
@@ -5150,7 +5150,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T12" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U12" t="n">
         <v>1319.064612101715</v>
@@ -5159,13 +5159,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W12" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X12" t="n">
-        <v>779.7569041357884</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y12" t="n">
-        <v>653.2711249150092</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>203.2128542977687</v>
+        <v>344.7073242187284</v>
       </c>
       <c r="C13" t="n">
-        <v>203.2128542977687</v>
+        <v>344.7073242187284</v>
       </c>
       <c r="D13" t="n">
-        <v>203.2128542977687</v>
+        <v>344.7073242187284</v>
       </c>
       <c r="E13" t="n">
-        <v>33.45485054850599</v>
+        <v>344.7073242187284</v>
       </c>
       <c r="F13" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="G13" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H13" t="n">
         <v>33.45485054850599</v>
@@ -5199,22 +5199,22 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J13" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K13" t="n">
-        <v>418.568562451758</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L13" t="n">
-        <v>506.3610359843471</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M13" t="n">
-        <v>598.9258899113638</v>
+        <v>1006.944496686799</v>
       </c>
       <c r="N13" t="n">
-        <v>689.2897585046177</v>
+        <v>1097.308365280052</v>
       </c>
       <c r="O13" t="n">
-        <v>1035.539170576305</v>
+        <v>1180.774023741878</v>
       </c>
       <c r="P13" t="n">
         <v>1449.542946114066</v>
@@ -5226,25 +5226,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S13" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T13" t="n">
-        <v>1429.437390511417</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U13" t="n">
-        <v>1199.405140226621</v>
+        <v>1245.600917940732</v>
       </c>
       <c r="V13" t="n">
-        <v>912.4496320970518</v>
+        <v>1035.972018037316</v>
       </c>
       <c r="W13" t="n">
-        <v>640.4232276833434</v>
+        <v>763.9456136236072</v>
       </c>
       <c r="X13" t="n">
-        <v>395.0314730167559</v>
+        <v>763.9456136236072</v>
       </c>
       <c r="Y13" t="n">
-        <v>395.0314730167559</v>
+        <v>536.5259429377155</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>831.1903348568071</v>
+        <v>631.8682645251841</v>
       </c>
       <c r="C14" t="n">
-        <v>408.7806057090042</v>
+        <v>631.8682645251841</v>
       </c>
       <c r="D14" t="n">
-        <v>408.7806057090042</v>
+        <v>631.8682645251841</v>
       </c>
       <c r="E14" t="n">
-        <v>408.7806057090042</v>
+        <v>631.8682645251841</v>
       </c>
       <c r="F14" t="n">
-        <v>33.45485054850599</v>
+        <v>631.8682645251841</v>
       </c>
       <c r="G14" t="n">
-        <v>33.45485054850599</v>
+        <v>231.8135990200821</v>
       </c>
       <c r="H14" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I14" t="n">
-        <v>83.79828774524211</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J14" t="n">
         <v>195.5292216073325</v>
       </c>
       <c r="K14" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L14" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M14" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N14" t="n">
         <v>1036.7784573317</v>
@@ -5311,19 +5311,19 @@
         <v>1672.742527425299</v>
       </c>
       <c r="U14" t="n">
-        <v>1672.742527425299</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="V14" t="n">
-        <v>1672.742527425299</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="W14" t="n">
-        <v>1672.742527425299</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="X14" t="n">
-        <v>1253.60006400461</v>
+        <v>631.8682645251841</v>
       </c>
       <c r="Y14" t="n">
-        <v>1253.60006400461</v>
+        <v>631.8682645251841</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K15" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631985</v>
       </c>
       <c r="L15" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442027</v>
       </c>
       <c r="M15" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N15" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O15" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P15" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q15" t="n">
         <v>1511.8379027716</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>382.7236161035248</v>
+        <v>213.8075800449743</v>
       </c>
       <c r="C16" t="n">
-        <v>210.1619045867498</v>
+        <v>213.8075800449743</v>
       </c>
       <c r="D16" t="n">
-        <v>210.1619045867498</v>
+        <v>47.92958724649694</v>
       </c>
       <c r="E16" t="n">
-        <v>210.1619045867498</v>
+        <v>47.92958724649694</v>
       </c>
       <c r="F16" t="n">
-        <v>33.45485054850599</v>
+        <v>47.92958724649694</v>
       </c>
       <c r="G16" t="n">
-        <v>33.45485054850599</v>
+        <v>47.92958724649694</v>
       </c>
       <c r="H16" t="n">
-        <v>33.45485054850599</v>
+        <v>47.92958724649694</v>
       </c>
       <c r="I16" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="J16" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K16" t="n">
-        <v>418.568562451758</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L16" t="n">
-        <v>769.144789594209</v>
+        <v>919.1520231542094</v>
       </c>
       <c r="M16" t="n">
-        <v>861.7096435212256</v>
+        <v>1204.29412910683</v>
       </c>
       <c r="N16" t="n">
-        <v>952.0735121144794</v>
+        <v>1294.657997700084</v>
       </c>
       <c r="O16" t="n">
-        <v>1035.539170576305</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P16" t="n">
         <v>1449.542946114066</v>
@@ -5463,25 +5463,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S16" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T16" t="n">
-        <v>1429.437390511417</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U16" t="n">
-        <v>1169.125199332695</v>
+        <v>1245.600917940732</v>
       </c>
       <c r="V16" t="n">
-        <v>882.169691203125</v>
+        <v>958.6454098111619</v>
       </c>
       <c r="W16" t="n">
-        <v>610.1432867894166</v>
+        <v>686.6190053974535</v>
       </c>
       <c r="X16" t="n">
-        <v>610.1432867894166</v>
+        <v>441.227250730866</v>
       </c>
       <c r="Y16" t="n">
-        <v>382.7236161035248</v>
+        <v>213.8075800449743</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>446.7092428694776</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="C17" t="n">
-        <v>446.7092428694776</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="D17" t="n">
-        <v>446.7092428694776</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E17" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5533,7 +5533,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5545,22 +5545,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2300.68092612414</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2041.610234645654</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1678.99328457948</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W17" t="n">
-        <v>1274.137829990514</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X17" t="n">
-        <v>854.9953665698242</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y17" t="n">
-        <v>446.7092428694776</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
         <v>79.1492015823585</v>
@@ -5591,13 +5591,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960906</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.081764785142</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C19" t="n">
-        <v>443.520053268367</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D19" t="n">
-        <v>277.6420604698897</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E19" t="n">
-        <v>107.8840567206269</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>688.1212571728195</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>1272.302332591134</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N19" t="n">
-        <v>1842.060047552668</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O19" t="n">
         <v>2005.127382498298</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>2068.231909419238</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1789.845277467981</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270317</v>
+        <v>1502.889769338411</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856609</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.320054190021</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041292</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1349.126238781879</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="C20" t="n">
-        <v>910.9837659653025</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D20" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2138.04275933296</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>1775.425809266787</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W20" t="n">
-        <v>1775.425809266787</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X20" t="n">
-        <v>1775.425809266787</v>
+        <v>1067.259851166298</v>
       </c>
       <c r="Y20" t="n">
-        <v>1775.425809266787</v>
+        <v>658.9737274659511</v>
       </c>
     </row>
     <row r="21">
@@ -5813,13 +5813,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
         <v>79.1492015823585</v>
@@ -5828,25 +5828,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043032</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>471.655226289377</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C22" t="n">
-        <v>299.093514772602</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D22" t="n">
-        <v>223.9136055871985</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E22" t="n">
-        <v>223.9136055871985</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
         <v>47.20655154895474</v>
@@ -5913,22 +5913,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>828.1746199579899</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
         <v>1412.355695376305</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180194</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5943,19 +5943,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1816.040926473434</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1529.085418343864</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1529.085418343864</v>
       </c>
       <c r="X22" t="n">
-        <v>890.8935156942559</v>
+        <v>1283.693663677277</v>
       </c>
       <c r="Y22" t="n">
-        <v>663.4738450083642</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1782.900983623584</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="C23" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D23" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
         <v>276.0532770435809</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T23" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W23" t="n">
-        <v>2319.861207662534</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="X23" t="n">
-        <v>2319.861207662534</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="Y23" t="n">
-        <v>1911.575083962187</v>
+        <v>1154.573267142144</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J24" t="n">
-        <v>175.3166270668981</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6107,13 +6107,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>471.655226289377</v>
+        <v>896.8524940391951</v>
       </c>
       <c r="C25" t="n">
-        <v>471.655226289377</v>
+        <v>724.29078252242</v>
       </c>
       <c r="D25" t="n">
-        <v>305.7772334908997</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E25" t="n">
-        <v>136.0192297416369</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F25" t="n">
-        <v>136.0192297416369</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G25" t="n">
-        <v>136.0192297416369</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>831.5726843696448</v>
+        <v>481.9462364092376</v>
       </c>
       <c r="M25" t="n">
-        <v>962.1770767081742</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N25" t="n">
-        <v>1531.934791669708</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O25" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T25" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V25" t="n">
-        <v>1408.311674774552</v>
+        <v>1833.50894252437</v>
       </c>
       <c r="W25" t="n">
-        <v>1136.285270360843</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X25" t="n">
-        <v>890.8935156942559</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y25" t="n">
-        <v>663.4738450083642</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>706.9467691017961</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="C26" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D26" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E26" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F26" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001351</v>
+        <v>118.406501800135</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435803</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L26" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
@@ -6250,28 +6250,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>1957.24425759636</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W26" t="n">
-        <v>1552.388803007393</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="X26" t="n">
-        <v>1133.246339586704</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="Y26" t="n">
-        <v>1133.246339586704</v>
+        <v>1154.573267142144</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
         <v>341.0245550495863</v>
@@ -6299,7 +6299,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I27" t="n">
         <v>81.42328772043084</v>
@@ -6308,19 +6308,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L27" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P27" t="n">
         <v>1488.088567599445</v>
@@ -6360,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.6552262893761</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="C28" t="n">
-        <v>471.6552262893761</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D28" t="n">
-        <v>471.6552262893761</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E28" t="n">
-        <v>471.6552262893761</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F28" t="n">
-        <v>294.9481722511323</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G28" t="n">
-        <v>130.2069918636507</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L28" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M28" t="n">
-        <v>1329.17407462327</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N28" t="n">
-        <v>1898.931789584804</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O28" t="n">
-        <v>2016.697670932566</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S28" t="n">
         <v>2215.901038951971</v>
@@ -6423,13 +6423,13 @@
         <v>1408.311674774551</v>
       </c>
       <c r="W28" t="n">
-        <v>1136.285270360843</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="X28" t="n">
-        <v>890.893515694255</v>
+        <v>1338.968419111735</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.4738450083632</v>
+        <v>1111.548748425843</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>716.4307943255671</v>
+        <v>655.2472895131115</v>
       </c>
       <c r="C29" t="n">
-        <v>716.4307943255671</v>
+        <v>655.2472895131115</v>
       </c>
       <c r="D29" t="n">
-        <v>716.4307943255671</v>
+        <v>655.2472895131115</v>
       </c>
       <c r="E29" t="n">
-        <v>716.4307943255671</v>
+        <v>655.2472895131115</v>
       </c>
       <c r="F29" t="n">
-        <v>716.4307943255671</v>
+        <v>655.2472895131115</v>
       </c>
       <c r="G29" t="n">
-        <v>316.9281030050443</v>
+        <v>255.7445981925886</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T29" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>1889.485634438363</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W29" t="n">
-        <v>1543.859381446603</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X29" t="n">
-        <v>1124.716918025914</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="Y29" t="n">
-        <v>716.4307943255671</v>
+        <v>1081.546859998019</v>
       </c>
     </row>
     <row r="30">
@@ -6524,22 +6524,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6548,10 +6548,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>959.9477806029472</v>
+        <v>896.8524940391951</v>
       </c>
       <c r="C31" t="n">
-        <v>787.3860690861721</v>
+        <v>724.29078252242</v>
       </c>
       <c r="D31" t="n">
-        <v>621.5080762876948</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E31" t="n">
-        <v>451.7500725384321</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F31" t="n">
-        <v>275.0430185001883</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G31" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H31" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
         <v>192.6919004158277</v>
@@ -6627,13 +6627,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M31" t="n">
-        <v>1272.302332591134</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N31" t="n">
-        <v>1399.801244395024</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O31" t="n">
         <v>1657.620488527956</v>
@@ -6645,28 +6645,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U31" t="n">
-        <v>1937.514407000715</v>
+        <v>2120.464450653939</v>
       </c>
       <c r="V31" t="n">
-        <v>1650.558898871145</v>
+        <v>1833.50894252437</v>
       </c>
       <c r="W31" t="n">
-        <v>1624.577824674414</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X31" t="n">
-        <v>1379.186070007826</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y31" t="n">
-        <v>1151.766399321934</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1782.900983623584</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F32" t="n">
+        <v>716.4307943255671</v>
+      </c>
+      <c r="G32" t="n">
+        <v>316.9281030050443</v>
+      </c>
+      <c r="H32" t="n">
         <v>47.20655154895473</v>
       </c>
-      <c r="G32" t="n">
-        <v>47.20655154895473</v>
-      </c>
-      <c r="H32" t="n">
-        <v>47.20655154895474</v>
-      </c>
       <c r="I32" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
         <v>1775.969506973259</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>2202.043447044273</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V32" t="n">
-        <v>2202.043447044273</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W32" t="n">
-        <v>2202.043447044273</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X32" t="n">
-        <v>1782.900983623584</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y32" t="n">
-        <v>1782.900983623584</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J33" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L33" t="n">
         <v>551.5786779960906</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>858.3289888817349</v>
+        <v>794.0697878044699</v>
       </c>
       <c r="C34" t="n">
-        <v>685.7672773649598</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="D34" t="n">
-        <v>519.8892845664825</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E34" t="n">
-        <v>350.1312808172198</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F34" t="n">
-        <v>173.424226778976</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M34" t="n">
-        <v>1066.127311827553</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N34" t="n">
-        <v>1635.885026789087</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O34" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>2081.940945496479</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.98543736691</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W34" t="n">
-        <v>1522.959032953201</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.567278286614</v>
+        <v>1213.308077209349</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.147607600722</v>
+        <v>985.888406523457</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>465.8895244078715</v>
+        <v>546.4982270764542</v>
       </c>
       <c r="C35" t="n">
-        <v>465.8895244078715</v>
+        <v>546.4982270764542</v>
       </c>
       <c r="D35" t="n">
-        <v>465.8895244078715</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E35" t="n">
-        <v>465.8895244078715</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F35" t="n">
-        <v>465.8895244078715</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
         <v>2043.069798152528</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>2060.790516184048</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V35" t="n">
-        <v>1698.173566117874</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W35" t="n">
-        <v>1293.318111528907</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="X35" t="n">
-        <v>874.1756481082181</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="Y35" t="n">
-        <v>465.8895244078715</v>
+        <v>972.797797561362</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M36" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P36" t="n">
         <v>1488.088567599445</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>471.6552262893761</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="C37" t="n">
-        <v>299.0935147726011</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D37" t="n">
-        <v>223.9136055871985</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E37" t="n">
-        <v>223.9136055871985</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
         <v>47.20655154895473</v>
@@ -7095,25 +7095,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092379</v>
       </c>
       <c r="M37" t="n">
-        <v>1329.17407462327</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N37" t="n">
-        <v>1898.931789584804</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O37" t="n">
-        <v>2016.697670932566</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7137,10 +7137,10 @@
         <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>890.893515694255</v>
+        <v>907.3474597907521</v>
       </c>
       <c r="Y37" t="n">
-        <v>663.4738450083632</v>
+        <v>679.9277891048604</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.20655154895474</v>
+        <v>1060.102744102079</v>
       </c>
       <c r="C38" t="n">
-        <v>47.20655154895474</v>
+        <v>1060.102744102079</v>
       </c>
       <c r="D38" t="n">
-        <v>47.20655154895474</v>
+        <v>1060.102744102079</v>
       </c>
       <c r="E38" t="n">
-        <v>47.20655154895474</v>
+        <v>626.3279992603739</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895474</v>
+        <v>198.4605696695816</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7192,7 +7192,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7204,22 +7204,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2060.790516184048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>1698.173566117875</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W38" t="n">
-        <v>1300.934709154898</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X38" t="n">
-        <v>881.7922457342091</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y38" t="n">
-        <v>473.5061220338625</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="39">
@@ -7235,19 +7235,19 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235861</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043086</v>
@@ -7256,19 +7256,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
         <v>1488.088567599445</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.1113136517137</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C40" t="n">
-        <v>559.5496021349386</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D40" t="n">
-        <v>393.6716093364613</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E40" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>358.0754347909403</v>
+        <v>295.9524490360515</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092383</v>
+        <v>419.8232506543494</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>550.4276429928788</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1937.514407000715</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V40" t="n">
-        <v>1650.558898871145</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="W40" t="n">
-        <v>1378.532494457437</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X40" t="n">
-        <v>1151.349603056593</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.9299323707007</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="41">
@@ -7405,7 +7405,7 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
@@ -7414,43 +7414,43 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916848</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>1889.485634438362</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>1526.868684372189</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W41" t="n">
-        <v>1122.013229783222</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X41" t="n">
         <v>716.4307943255671</v>
@@ -7466,55 +7466,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030328</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765398</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927014</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
         <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>1676.651116233591</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
         <v>1632.030085633326</v>
@@ -7529,13 +7529,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>858.3289888817344</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C43" t="n">
-        <v>685.7672773649593</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D43" t="n">
-        <v>519.889284566482</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E43" t="n">
-        <v>350.1312808172193</v>
+        <v>273.7620495191042</v>
       </c>
       <c r="F43" t="n">
-        <v>173.4242267789755</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M43" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N43" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>2360.327577447736</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>2081.940945496479</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.985437366909</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1522.959032953201</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.567278286613</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.147607600722</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F44" t="n">
         <v>47.20655154895473</v>
@@ -7645,13 +7645,13 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L44" t="n">
         <v>805.440802286702</v>
@@ -7681,19 +7681,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662534</v>
+        <v>2068.407113810038</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662534</v>
+        <v>1705.790163743865</v>
       </c>
       <c r="W44" t="n">
-        <v>2202.043447044273</v>
+        <v>1300.934709154898</v>
       </c>
       <c r="X44" t="n">
-        <v>1782.900983623584</v>
+        <v>881.7922457342091</v>
       </c>
       <c r="Y44" t="n">
-        <v>1782.900983623584</v>
+        <v>473.5061220338625</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
         <v>341.0245550495863</v>
@@ -7721,10 +7721,10 @@
         <v>79.14920158235849</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7733,10 +7733,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.6552262893761</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C46" t="n">
-        <v>471.6552262893761</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D46" t="n">
-        <v>471.6552262893761</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E46" t="n">
-        <v>301.8972225401134</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F46" t="n">
-        <v>125.1901685018696</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="G46" t="n">
         <v>47.20655154895473</v>
@@ -7806,25 +7806,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M46" t="n">
-        <v>1412.355695376305</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N46" t="n">
-        <v>1539.854607180194</v>
+        <v>1708.047382044526</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>890.893515694255</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083632</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
   </sheetData>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>161.9576355439992</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.3670431532728</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8856,16 +8856,16 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>265.4381349594563</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>346.0449349349548</v>
+        <v>199.3430630505377</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>16.80470271645322</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>16.80470271645393</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>265.4381349594564</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>194.5224767935397</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>346.0449349349549</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9327,16 +9327,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>70.05088382580971</v>
       </c>
       <c r="O19" t="n">
-        <v>45.75904403825064</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>141.4680432173438</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>7.999813646956227</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371571</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>158.2045317475392</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10275,16 +10275,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>141.4680432173443</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>192.4544649334023</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>70.05088382580971</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042869</v>
       </c>
       <c r="M37" t="n">
         <v>458.158265737157</v>
@@ -10758,10 +10758,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>158.2045317475395</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>69.27619576520644</v>
+        <v>93.97993254278336</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -10998,10 +10998,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>177.1920849464593</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,19 +11454,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>177.1920849464593</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>253.9135309266333</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23269,7 +23269,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>20.65515647976144</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>396.054118850051</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T11" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>229.9596144827564</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.3388892342509</v>
       </c>
       <c r="H13" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>69.83578017384922</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U13" t="n">
-        <v>47.88420806710428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>76.55334214389211</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.85094292373384</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23506,13 +23506,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>52.01625768599115</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>272.6207125031721</v>
+        <v>76.24555151631176</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.51403670113842</v>
+        <v>52.5140367011384</v>
       </c>
       <c r="T14" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -23655,16 +23655,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.3388892342509</v>
@@ -23673,7 +23673,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I16" t="n">
-        <v>69.83578017384922</v>
+        <v>55.50579084283817</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U16" t="n">
-        <v>17.90706658211678</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,13 +23734,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>100.9262404228937</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>190.6650602925689</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>93.63231361822199</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>83.41140656376098</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>36.41801463007246</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>89.79110277694313</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>119.5660061336192</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>294.6492154448413</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>72.29614307268321</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>105.5604023018363</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>145.3425294405764</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>47.64256865262666</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24457,7 +24457,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>72.29614307268321</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24606,10 +24606,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>48.85018410292824</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>174.288014013734</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>60.57166976433112</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>58.63690958123431</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24858,7 +24858,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>181.1205432166933</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>243.5848769148072</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>99.7786954642726</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>42.73835744761504</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>38.13827010588576</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>43.58765026819842</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>366.6889255983632</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>248.0358572185187</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>89.79110277694403</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>16.28940465553208</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25399,13 +25399,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>245.766186467897</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>7.540431649730692</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>7.057009085482377</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>18.02677463308586</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>13.42442768340396</v>
+        <v>53.4861337707539</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>38.1382701058862</v>
+        <v>113.7438090910202</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
@@ -25921,19 +25921,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>7.540431649731005</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>284.1673170309993</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>85.88998780022106</v>
+        <v>113.7438090910206</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>330329.3880377458</v>
+        <v>330329.3880377457</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>330329.3880377458</v>
+        <v>330329.3880377457</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>419669.451596201</v>
+        <v>419669.4515962011</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>419669.4515962009</v>
+        <v>419669.451596201</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>419669.4515962011</v>
+        <v>419669.451596201</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>419669.4515962011</v>
+        <v>419669.451596201</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>419669.451596201</v>
+        <v>419669.4515962011</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>419669.4515962009</v>
+        <v>419669.451596201</v>
       </c>
     </row>
   </sheetData>
@@ -26331,22 +26331,22 @@
         <v>141567.8141707356</v>
       </c>
       <c r="H2" t="n">
+        <v>141567.8141707357</v>
+      </c>
+      <c r="I2" t="n">
         <v>141567.8141707356</v>
       </c>
-      <c r="I2" t="n">
-        <v>141567.8141707357</v>
-      </c>
       <c r="J2" t="n">
-        <v>141567.8141707355</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="K2" t="n">
         <v>141567.8141707356</v>
       </c>
       <c r="L2" t="n">
+        <v>141567.8141707355</v>
+      </c>
+      <c r="M2" t="n">
         <v>141567.8141707356</v>
-      </c>
-      <c r="M2" t="n">
-        <v>141567.8141707355</v>
       </c>
       <c r="N2" t="n">
         <v>141567.8141707356</v>
@@ -26355,7 +26355,7 @@
         <v>141567.8141707356</v>
       </c>
       <c r="P2" t="n">
-        <v>141567.8141707356</v>
+        <v>141567.8141707357</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>390603.752983759</v>
+        <v>390603.7529837591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>152798.4169065696</v>
+        <v>152798.4169065693</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41367.00746823735</v>
+        <v>41367.00746823741</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14210.98180735127</v>
+        <v>14210.98180735126</v>
       </c>
       <c r="F4" t="n">
-        <v>14210.98180735127</v>
+        <v>14210.98180735125</v>
       </c>
       <c r="G4" t="n">
         <v>11163.53558956959</v>
@@ -26438,13 +26438,13 @@
         <v>11163.53558956959</v>
       </c>
       <c r="I4" t="n">
+        <v>11163.5355895696</v>
+      </c>
+      <c r="J4" t="n">
         <v>11163.53558956959</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>11163.53558956958</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11163.53558956959</v>
       </c>
       <c r="L4" t="n">
         <v>11163.53558956959</v>
@@ -26484,19 +26484,19 @@
         <v>32636.50261996421</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963781</v>
@@ -26505,10 +26505,10 @@
         <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="O5" t="n">
         <v>46051.08120963782</v>
-      </c>
-      <c r="O5" t="n">
-        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-327900.1093798415</v>
+        <v>-328631.8603016163</v>
       </c>
       <c r="F6" t="n">
-        <v>62703.64360391756</v>
+        <v>61971.89268214285</v>
       </c>
       <c r="G6" t="n">
-        <v>-68445.21953504137</v>
+        <v>-68999.09997826301</v>
       </c>
       <c r="H6" t="n">
-        <v>84353.19737152816</v>
+        <v>83799.3169283063</v>
       </c>
       <c r="I6" t="n">
-        <v>84353.19737152825</v>
+        <v>83799.31692830623</v>
       </c>
       <c r="J6" t="n">
-        <v>84353.19737152813</v>
+        <v>83799.31692830627</v>
       </c>
       <c r="K6" t="n">
-        <v>84353.19737152822</v>
+        <v>83799.31692830627</v>
       </c>
       <c r="L6" t="n">
-        <v>84353.19737152816</v>
+        <v>83799.3169283062</v>
       </c>
       <c r="M6" t="n">
-        <v>-19860.33482959545</v>
+        <v>-20414.21527281732</v>
       </c>
       <c r="N6" t="n">
-        <v>84353.19737152822</v>
+        <v>83799.31692830626</v>
       </c>
       <c r="O6" t="n">
-        <v>42986.18990329085</v>
+        <v>42432.30946006882</v>
       </c>
       <c r="P6" t="n">
-        <v>84353.19737152824</v>
+        <v>83799.31692830632</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="F3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632873</v>
       </c>
       <c r="G3" t="n">
+        <v>466.7019280932211</v>
+      </c>
+      <c r="H3" t="n">
         <v>466.7019280932212</v>
       </c>
-      <c r="H3" t="n">
-        <v>466.7019280932213</v>
-      </c>
       <c r="I3" t="n">
+        <v>466.701928093221</v>
+      </c>
+      <c r="J3" t="n">
+        <v>466.7019280932211</v>
+      </c>
+      <c r="K3" t="n">
+        <v>466.7019280932211</v>
+      </c>
+      <c r="L3" t="n">
+        <v>466.7019280932211</v>
+      </c>
+      <c r="M3" t="n">
+        <v>466.7019280932211</v>
+      </c>
+      <c r="N3" t="n">
+        <v>466.7019280932211</v>
+      </c>
+      <c r="O3" t="n">
         <v>466.7019280932212</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
         <v>466.7019280932212</v>
-      </c>
-      <c r="K3" t="n">
-        <v>466.7019280932212</v>
-      </c>
-      <c r="L3" t="n">
-        <v>466.7019280932212</v>
-      </c>
-      <c r="M3" t="n">
-        <v>466.7019280932212</v>
-      </c>
-      <c r="N3" t="n">
-        <v>466.7019280932212</v>
-      </c>
-      <c r="O3" t="n">
-        <v>466.7019280932211</v>
-      </c>
-      <c r="P3" t="n">
-        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26804,19 +26804,19 @@
         <v>418.1856318563248</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619341</v>
@@ -26825,10 +26825,10 @@
         <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="O4" t="n">
         <v>590.0818943619342</v>
-      </c>
-      <c r="O4" t="n">
-        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
         <v>590.0818943619341</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.9305426299341</v>
+        <v>135.9305426299338</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>171.8962625056094</v>
+        <v>171.8962625056093</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>171.8962625056092</v>
+        <v>171.8962625056094</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>171.8962625056094</v>
+        <v>171.8962625056093</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I11" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J11" t="n">
         <v>112.8595291536268</v>
@@ -31767,13 +31767,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O11" t="n">
         <v>224.0452553667434</v>
@@ -31785,13 +31785,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S11" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T11" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U11" t="n">
         <v>0.1063787370334189</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H12" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I12" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J12" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K12" t="n">
         <v>114.8868877226589</v>
@@ -31861,10 +31861,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R12" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S12" t="n">
         <v>13.21525299468887</v>
@@ -31873,7 +31873,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H13" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I13" t="n">
         <v>17.9375695592222</v>
@@ -31922,25 +31922,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K13" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M13" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O13" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P13" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R13" t="n">
         <v>26.81959463117078</v>
@@ -31952,7 +31952,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H14" t="n">
-        <v>13.61814050804377</v>
+        <v>13.61814050804378</v>
       </c>
       <c r="I14" t="n">
-        <v>51.26457824351107</v>
+        <v>51.2645782435111</v>
       </c>
       <c r="J14" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K14" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M14" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O14" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P14" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q14" t="n">
-        <v>143.5963354852203</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R14" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219387</v>
       </c>
       <c r="S14" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686296</v>
       </c>
       <c r="T14" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047396</v>
       </c>
       <c r="U14" t="n">
         <v>0.1063787370334189</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229198</v>
       </c>
       <c r="H15" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284516</v>
       </c>
       <c r="I15" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J15" t="n">
-        <v>67.21836239872329</v>
+        <v>67.21836239872333</v>
       </c>
       <c r="K15" t="n">
-        <v>114.8868877226589</v>
+        <v>114.886887722659</v>
       </c>
       <c r="L15" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M15" t="n">
         <v>180.2704050774915</v>
       </c>
       <c r="N15" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O15" t="n">
         <v>169.27693723799</v>
       </c>
       <c r="P15" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305203</v>
       </c>
       <c r="R15" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319148</v>
       </c>
       <c r="S15" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T15" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796983</v>
       </c>
       <c r="H16" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870413</v>
       </c>
       <c r="I16" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J16" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K16" t="n">
-        <v>69.29931649542308</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L16" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453443</v>
       </c>
       <c r="M16" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153215</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O16" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103594</v>
       </c>
       <c r="P16" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137004</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495638</v>
       </c>
       <c r="R16" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S16" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T16" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,13 +32466,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -32481,10 +32481,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917233</v>
@@ -32575,16 +32575,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R25" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35406,10 +35406,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J11" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K11" t="n">
         <v>169.1471783864346</v>
@@ -35424,16 +35424,16 @@
         <v>237.2677999464443</v>
       </c>
       <c r="O11" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P11" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J12" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K12" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L12" t="n">
         <v>154.4795984656607</v>
@@ -35503,16 +35503,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O12" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P12" t="n">
-        <v>297.8173013958916</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q12" t="n">
-        <v>418.1856318563248</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R12" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K13" t="n">
         <v>346.8331089915197</v>
@@ -35576,22 +35576,22 @@
         <v>88.67926619453442</v>
       </c>
       <c r="M13" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N13" t="n">
         <v>91.27663494268063</v>
       </c>
       <c r="O13" t="n">
-        <v>349.7468808804922</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P13" t="n">
-        <v>418.1856318563248</v>
+        <v>271.4837599719076</v>
       </c>
       <c r="Q13" t="n">
         <v>219.8381709871101</v>
       </c>
       <c r="R13" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.85195676437968</v>
+        <v>50.8519567643797</v>
       </c>
       <c r="J14" t="n">
-        <v>112.8595291536267</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K14" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M14" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O14" t="n">
-        <v>224.0452553667433</v>
+        <v>224.045255366743</v>
       </c>
       <c r="P14" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q14" t="n">
-        <v>143.5963354852206</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R14" t="n">
         <v>83.52891675219394</v>
@@ -35728,28 +35728,28 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K15" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391122</v>
       </c>
       <c r="L15" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M15" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N15" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O15" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P15" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.6232914195059</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R15" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K16" t="n">
         <v>346.8331089915197</v>
       </c>
       <c r="L16" t="n">
-        <v>354.1174011539908</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M16" t="n">
-        <v>93.49985245153209</v>
+        <v>288.0223292450719</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O16" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P16" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692137014</v>
       </c>
       <c r="Q16" t="n">
         <v>219.8381709871101</v>
       </c>
       <c r="R16" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488958</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,28 +35880,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>198.8376634256981</v>
       </c>
       <c r="O19" t="n">
-        <v>164.7144797430606</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916725</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36281,28 +36281,28 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>266.5900650540084</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,22 +36354,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -36378,10 +36378,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108054</v>
@@ -36451,13 +36451,13 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233622</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447059</v>
+        <v>281.8524450409511</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>126.955249351766</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,19 +36591,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P28" t="n">
-        <v>259.9914571795427</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36922,7 +36922,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>260.4234789221541</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P31" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>324.3780935581794</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>198.8376634256981</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P34" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,28 +37302,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37384,13 +37384,13 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37402,7 +37402,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409515</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>259.991457179543</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37551,16 +37551,16 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>167.0540751263764</v>
+        <v>191.7578119039533</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247771</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816033</v>
@@ -37803,7 +37803,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37879,7 +37879,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
         <v>62.32672164233622</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>296.1475206512691</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
@@ -38022,7 +38022,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38107,7 +38107,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
-        <v>309.1157135712365</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>382.7003105265217</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048098</v>
@@ -38195,7 +38195,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
